--- a/worktalk_chat_db설계.xlsx
+++ b/worktalk_chat_db설계.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missj\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morning\java workspace\worktalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7A369A-09B9-419C-BA8B-B5337F766DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA09319-93E0-4183-8D59-1B080FE5E938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2270" yWindow="150" windowWidth="13690" windowHeight="9750" xr2:uid="{7C660A27-4CAF-4BEA-8D6D-BCB719546994}"/>
+    <workbookView xWindow="2020" yWindow="50" windowWidth="13020" windowHeight="9750" xr2:uid="{7C660A27-4CAF-4BEA-8D6D-BCB719546994}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,6 +254,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,9 +265,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,7 +586,7 @@
   <dimension ref="C2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -600,16 +600,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C3" s="2"/>
@@ -719,7 +719,7 @@
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
